--- a/Best_features_XGboost_results/Precision_Recall_Accuracy_100features_XGB_part_0_40.xlsx
+++ b/Best_features_XGboost_results/Precision_Recall_Accuracy_100features_XGB_part_0_40.xlsx
@@ -501,19 +501,19 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="H2" t="n">
         <v>0.7465181058495822</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7219917012448133</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.40625</v>
       </c>
       <c r="H3" t="n">
         <v>0.7910863509749304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7883817427385892</v>
+        <v>0.7983870967741935</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -573,19 +573,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.456140350877193</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>0.871866295264624</v>
       </c>
       <c r="I4" t="n">
-        <v>0.864</v>
+        <v>0.8851063829787233</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         <v>0.4111111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="H5" t="n">
         <v>0.8440111420612814</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7982062780269058</v>
+        <v>0.8345864661654135</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,19 +645,19 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H6" t="n">
         <v>0.9721448467966574</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9617021276595744</v>
+        <v>0.979253112033195</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.46875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.40625</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H7" t="n">
         <v>0.883008356545961</v>
       </c>
       <c r="I7" t="n">
-        <v>0.869198312236287</v>
+        <v>0.9135802469135802</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -717,19 +717,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="H8" t="n">
         <v>0.9610027855153204</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9535864978902954</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.53125</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0.9415041782729805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9620253164556962</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -789,19 +789,19 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F10" t="n">
         <v>0.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="H10" t="n">
         <v>0.8607242339832869</v>
       </c>
       <c r="I10" t="n">
-        <v>0.865546218487395</v>
+        <v>0.869198312236287</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -825,19 +825,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="H11" t="n">
         <v>0.7966573816155988</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7764705882352941</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -861,19 +861,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="H12" t="n">
         <v>0.9888579387186629</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9915254237288136</v>
+        <v>0.9875518672199171</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         <v>0.4111111111111111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="H13" t="n">
         <v>0.9665738161559888</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9623430962343096</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>0.7743732590529248</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7633587786259542</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -969,19 +969,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="H15" t="n">
         <v>0.9665738161559888</v>
       </c>
       <c r="I15" t="n">
-        <v>0.95</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1005,19 +1005,19 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.34375</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="H16" t="n">
         <v>0.7520891364902507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.723404255319149</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1041,19 +1041,19 @@
         <v>0.3222222222222222</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.34375</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H17" t="n">
         <v>0.9442896935933147</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9322033898305084</v>
+        <v>0.9539748953974896</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1077,19 +1077,19 @@
         <v>0.4111111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H18" t="n">
         <v>0.9108635097493036</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9067796610169492</v>
+        <v>0.9243027888446215</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1113,19 +1113,19 @@
         <v>0.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.46875</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H19" t="n">
         <v>0.9303621169916435</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9421487603305785</v>
+        <v>0.9121338912133892</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>0.360655737704918</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="H20" t="n">
         <v>0.7827298050139275</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7574468085106383</v>
+        <v>0.7736625514403292</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1185,19 +1185,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0.8607242339832869</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8298755186721992</v>
+        <v>0.8870292887029289</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1221,13 +1221,13 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4375</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0.9777158774373259</v>
@@ -1257,19 +1257,19 @@
         <v>0.5222222222222223</v>
       </c>
       <c r="E23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.7333333333333333</v>
-      </c>
       <c r="G23" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H23" t="n">
         <v>0.637883008356546</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6492537313432836</v>
+        <v>0.6752136752136753</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1293,19 +1293,19 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="H24" t="n">
         <v>0.713091922005571</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.7094339622641509</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1329,19 +1329,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0.8077994428969359</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8081632653061225</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="H26" t="n">
         <v>0.9916434540389972</v>
@@ -1401,19 +1401,19 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>0.28</v>
+        <v>0.53125</v>
       </c>
       <c r="H27" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I27" t="n">
-        <v>0.927038626609442</v>
+        <v>0.963265306122449</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1437,19 +1437,19 @@
         <v>0.3777777777777778</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="H28" t="n">
         <v>0.8635097493036211</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8502024291497976</v>
+        <v>0.8713692946058091</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1473,19 +1473,19 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E29" t="n">
-        <v>0.45</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>0.7298050139275766</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.7867647058823529</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1509,19 +1509,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="H30" t="n">
         <v>0.8635097493036211</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.8595744680851064</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
         <v>0.4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="H31" t="n">
         <v>0.7075208913649025</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1581,19 +1581,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.52</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="H32" t="n">
         <v>0.7075208913649025</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7171314741035857</v>
+        <v>0.6804979253112033</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1617,19 +1617,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="H33" t="n">
         <v>0.7632311977715878</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7480916030534351</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1653,19 +1653,19 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5625</v>
       </c>
       <c r="H34" t="n">
         <v>0.8885793871866295</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8514056224899599</v>
+        <v>0.9004329004329005</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1689,19 +1689,19 @@
         <v>0.4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.36</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3272727272727273</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H35" t="n">
         <v>0.9387186629526463</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9218106995884774</v>
+        <v>0.9288702928870293</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1725,19 +1725,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4375</v>
+        <v>0.44</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0.9832869080779945</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9874476987447699</v>
+        <v>0.9831932773109243</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1761,19 +1761,19 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H37" t="n">
         <v>0.6629526462395543</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1797,19 +1797,19 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5625</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="H38" t="n">
         <v>0.8802228412256268</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8582995951417004</v>
+        <v>0.9121338912133892</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1833,19 +1833,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="F39" t="n">
         <v>0.4</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="H39" t="n">
         <v>0.9554317548746518</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9456066945606695</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1869,19 +1869,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H40" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1905,19 +1905,19 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H41" t="n">
         <v>0.9387186629526463</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9282700421940928</v>
+        <v>0.9377593360995851</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
